--- a/Template2_0.xlsx
+++ b/Template2_0.xlsx
@@ -25,474 +25,477 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="169">
+  <si>
+    <t xml:space="preserve">Property Analysis Worksheet – Rightside Two.0 © 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost and Revenue Assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financing Assumptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key Ratios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Square Feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OFFER : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner's Equity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Sq Ft/Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limited Partnership LP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seller Financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Rent/Sq Ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necessary Improvements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Cost/Sq Ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closing Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Unit Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition Fee:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down Payment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Rent Mult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expense/Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amort Period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expense/Sq Ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Monthly Rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Monthly Revenues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash on Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest ONLY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balloon in 5Yr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*30 Yrs debt reduction + Appreciation @ 3% / annum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rental Increase Projections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROI:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Expense Projections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/year:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Month:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Revenues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Scheduled Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% Deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Outlay:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacancy Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opportunity:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Rental Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating:       →</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After Tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expectation:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash flow 1:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gross Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash flow 2:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investors:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash flow 3:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributing:  →</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash flow 4:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repairs and Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash flow 5:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property Management Fee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Investment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/ Investor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash out:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units/Investor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*to meet all min requirements of SEC*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total PV:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~~~~~~~~~~~~~~~~~&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salaries and Wages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opportunity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NPV:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen &amp; Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRR:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advertising</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Cashout refi profit goes entirely to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repay investors initial contributions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Operating Expenses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 Year Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Operating Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Investment:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest on Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ cash flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principle Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Cost of Interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Income Tax Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depreciation Expenses(Building)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Refinance*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5 cap rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Taxable Deductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Repay Debts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Income before Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca$h+Profits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Net Income after Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage:</t>
+  </si>
   <si>
     <t xml:space="preserve">Property Analysis Worksheet - The Value Play Income Analyzer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost and Revenue Assumptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financing Assumptions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Ratios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ask</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Purchase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Square Feet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OFFER : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner's Equity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Sq Ft/Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limited Partnership LP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seller Financing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Rent/Sq Ft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investment:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necessary Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Cost/Sq Ft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Closing Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Unit Cost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquisition Fee:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquisition Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cap Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Down Payment:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Rent Mult.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expense/Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amort Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expense/Sq Ft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Monthly Rent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Monthly Revenues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash on Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest ONLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balloon in 5Yr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*30 Yrs debt reduction + Appreciation @ 3% / annum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rental Increase Projections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROI:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating Expense Projections</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/year:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/Month:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating Revenues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Monthly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Scheduled Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% Deal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Outlay:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vacancy Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opportunity:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Rental Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating:       →</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units </t>
-  </si>
-  <si>
-    <t xml:space="preserve">After Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expectation:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash flow 1:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gross Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash flow 2:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Investors:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash flow 3:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operating Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contributing:  →</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash flow 4:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repairs and Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash flow 5:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property Management Fee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Investment:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/ Investor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cash out:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units/Investor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insurance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*to meet all min requirements of SEC*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total PV:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~~~~~~~~~~~~~~~~~&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salaries and Wages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opportunity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NPV:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen &amp; Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Fees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRR:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advertising</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital Reserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Cashout refi profit goes entirely to </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repay investors initial contributions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Operating Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 Year Performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Operating Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Investment:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest on Loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ cash flow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Principle Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Cost of Interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Income Tax Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~~</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Depreciation Expenses(Building)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+ Refinance*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5 cap rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Taxable Deductions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Repay Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Income before Taxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Taxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ca$h+Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net Income after Taxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage:</t>
   </si>
   <si>
     <t xml:space="preserve">Actual Performance</t>
@@ -832,7 +835,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,7 +857,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFEBEBEB"/>
+        <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -866,7 +869,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0EFD4"/>
-        <bgColor rgb="FFEBEBEB"/>
+        <bgColor rgb="FFDDE8CB"/>
       </patternFill>
     </fill>
     <fill>
@@ -891,6 +894,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF62A73B"/>
         <bgColor rgb="FF89C765"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFE0EFD4"/>
       </patternFill>
     </fill>
   </fills>
@@ -1124,7 +1133,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="203">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1725,19 +1734,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1805,6 +1818,118 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="24" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="5" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="182" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1817,114 +1942,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="20" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="24" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="5" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="12" fillId="4" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1947,7 +1976,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFEBEBEB"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFDDE8CB"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -1961,13 +1990,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFC2E0AE"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FFE0EFD4"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFADD58A"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF89C765"/>
@@ -1989,11 +2018,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:areaChart>
         <c:grouping val="standard"/>
@@ -2009,12 +2039,23 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:numFmt formatCode="[$$-409]#,##0;[RED]\-[$$-409]#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -2023,30 +2064,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="99951437"/>
-        <c:axId val="61169799"/>
+        <c:axId val="30271400"/>
+        <c:axId val="89210990"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="99951437"/>
+        <c:axId val="30271400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,14 +2100,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61169799"/>
+        <c:crossAx val="89210990"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61169799"/>
+        <c:axId val="89210990"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2118,8 +2145,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99951437"/>
+        <c:crossAx val="30271400"/>
         <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2137,14 +2165,14 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2193,12 +2221,23 @@
             </a:ln>
           </c:spPr>
           <c:dLbls>
-            <c:numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:val>
@@ -2207,30 +2246,15 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="55464302"/>
-        <c:axId val="85262959"/>
+        <c:axId val="73106997"/>
+        <c:axId val="68331801"/>
       </c:areaChart>
       <c:catAx>
-        <c:axId val="55464302"/>
+        <c:axId val="73106997"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2258,14 +2282,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85262959"/>
+        <c:crossAx val="68331801"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85262959"/>
+        <c:axId val="68331801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,8 +2327,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55464302"/>
+        <c:crossAx val="73106997"/>
         <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2321,7 +2347,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -2335,13 +2361,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>225360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533880</xdr:colOff>
+      <xdr:colOff>533160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2351,7 +2377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12522600" y="1149480"/>
-          <a:ext cx="308520" cy="1144080"/>
+          <a:ext cx="307800" cy="1143360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2408,15 +2434,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>23040</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>186120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>378360</xdr:colOff>
+      <xdr:colOff>378000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2424,8 +2450,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14083920" y="592200"/>
-        <a:ext cx="5045760" cy="2738160"/>
+        <a:off x="14084280" y="567000"/>
+        <a:ext cx="5048280" cy="2737440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2440,13 +2466,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>225360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>533880</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:colOff>533160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2456,7 +2482,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12522600" y="1143720"/>
-          <a:ext cx="308520" cy="1131480"/>
+          <a:ext cx="307800" cy="1130760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2524,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>426960</xdr:colOff>
+      <xdr:colOff>426240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2535,7 +2561,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="13961880" y="666360"/>
-        <a:ext cx="5010840" cy="2647440"/>
+        <a:ext cx="5013000" cy="2646720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2554,9 +2580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>468360</xdr:colOff>
+      <xdr:colOff>467640</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2566,7 +2592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12466080" y="1192680"/>
-          <a:ext cx="299520" cy="1080360"/>
+          <a:ext cx="298800" cy="1079640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2628,13 +2654,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
@@ -2654,14 +2680,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.7"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4311,40 +4334,40 @@
       <c r="R40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="130" t="s">
+      <c r="A41" s="150" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="150" t="e">
+      <c r="B41" s="151" t="e">
         <f aca="false">100%-B39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C41" s="130"/>
-      <c r="D41" s="151" t="n">
+      <c r="C41" s="150"/>
+      <c r="D41" s="152" t="n">
         <f aca="false">D25-D39</f>
         <v>0</v>
       </c>
-      <c r="E41" s="152"/>
-      <c r="F41" s="151" t="n">
+      <c r="E41" s="153"/>
+      <c r="F41" s="152" t="n">
         <f aca="false">F25-F39</f>
         <v>0</v>
       </c>
-      <c r="G41" s="152"/>
-      <c r="H41" s="151" t="n">
+      <c r="G41" s="153"/>
+      <c r="H41" s="152" t="n">
         <f aca="false">H25-H39</f>
         <v>0</v>
       </c>
-      <c r="I41" s="152"/>
-      <c r="J41" s="151" t="n">
+      <c r="I41" s="153"/>
+      <c r="J41" s="152" t="n">
         <f aca="false">J25-J39</f>
         <v>0</v>
       </c>
-      <c r="K41" s="152"/>
-      <c r="L41" s="151" t="n">
+      <c r="K41" s="153"/>
+      <c r="L41" s="152" t="n">
         <f aca="false">L25-L39</f>
         <v>0</v>
       </c>
-      <c r="M41" s="153"/>
-      <c r="N41" s="151" t="n">
+      <c r="M41" s="154"/>
+      <c r="N41" s="152" t="n">
         <f aca="false">N25-N39</f>
         <v>0</v>
       </c>
@@ -4368,32 +4391,32 @@
         <f aca="false">-D42/D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="154" t="n">
+      <c r="D42" s="155" t="n">
         <f aca="false">F42/12</f>
         <v>-0</v>
       </c>
-      <c r="E42" s="155"/>
-      <c r="F42" s="154" t="n">
+      <c r="E42" s="156"/>
+      <c r="F42" s="155" t="n">
         <f aca="false">ISPMT(F11,12,H12,H7)</f>
         <v>-0</v>
       </c>
-      <c r="G42" s="155"/>
-      <c r="H42" s="154" t="n">
+      <c r="G42" s="156"/>
+      <c r="H42" s="155" t="n">
         <f aca="false">ISPMT(F11,24,H12,H7)</f>
         <v>-0</v>
       </c>
-      <c r="I42" s="155"/>
-      <c r="J42" s="154" t="n">
+      <c r="I42" s="156"/>
+      <c r="J42" s="155" t="n">
         <f aca="false">ISPMT(F11,36,H12,H7)</f>
         <v>-0</v>
       </c>
-      <c r="K42" s="155"/>
-      <c r="L42" s="154" t="n">
+      <c r="K42" s="156"/>
+      <c r="L42" s="155" t="n">
         <f aca="false">ISPMT(F11,48,H12,H7)</f>
         <v>-0</v>
       </c>
-      <c r="M42" s="155"/>
-      <c r="N42" s="154" t="n">
+      <c r="M42" s="156"/>
+      <c r="N42" s="155" t="n">
         <f aca="false">ISPMT(F11,60,H12,H7)</f>
         <v>-0</v>
       </c>
@@ -4451,7 +4474,7 @@
       <c r="P43" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Q43" s="156" t="e">
+      <c r="Q43" s="157" t="e">
         <f aca="false">(H49/R6)*P26</f>
         <v>#DIV/0!</v>
       </c>
@@ -4468,27 +4491,27 @@
         <f aca="false">-D44/D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="157" t="n">
+      <c r="D44" s="158" t="n">
         <f aca="false">F44/12</f>
         <v>-0</v>
       </c>
-      <c r="F44" s="154" t="n">
+      <c r="F44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
-      <c r="H44" s="154" t="n">
+      <c r="H44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
-      <c r="J44" s="154" t="n">
+      <c r="J44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
-      <c r="L44" s="154" t="n">
+      <c r="L44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
-      <c r="N44" s="154" t="n">
+      <c r="N44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
@@ -4498,7 +4521,7 @@
       <c r="P44" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Q44" s="156" t="e">
+      <c r="Q44" s="157" t="e">
         <f aca="false">(J49/R6)*P26</f>
         <v>#DIV/0!</v>
       </c>
@@ -4512,28 +4535,28 @@
         <v>141</v>
       </c>
       <c r="B45" s="146"/>
-      <c r="D45" s="157"/>
-      <c r="F45" s="158" t="n">
+      <c r="D45" s="158"/>
+      <c r="F45" s="159" t="n">
         <f aca="false">SUM(F44+F42)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="159"/>
-      <c r="H45" s="158" t="n">
+      <c r="G45" s="160"/>
+      <c r="H45" s="159" t="n">
         <f aca="false">SUM(H44+H42)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="159"/>
-      <c r="J45" s="158" t="n">
+      <c r="I45" s="160"/>
+      <c r="J45" s="159" t="n">
         <f aca="false">SUM(J44+J42)</f>
         <v>0</v>
       </c>
-      <c r="K45" s="159"/>
-      <c r="L45" s="158" t="n">
+      <c r="K45" s="160"/>
+      <c r="L45" s="159" t="n">
         <f aca="false">SUM(L44+L42)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="159"/>
-      <c r="N45" s="158" t="n">
+      <c r="M45" s="160"/>
+      <c r="N45" s="159" t="n">
         <f aca="false">SUM(N44+N42)</f>
         <v>0</v>
       </c>
@@ -4543,7 +4566,7 @@
       <c r="P45" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Q45" s="156" t="e">
+      <c r="Q45" s="157" t="e">
         <f aca="false">(L49/R6)*P26</f>
         <v>#DIV/0!</v>
       </c>
@@ -4559,26 +4582,26 @@
       <c r="B46" s="36" t="n">
         <v>0.15</v>
       </c>
-      <c r="D46" s="160" t="s">
+      <c r="D46" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="160"/>
-      <c r="K46" s="160"/>
-      <c r="L46" s="160"/>
-      <c r="M46" s="160"/>
-      <c r="N46" s="160"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="161"/>
+      <c r="M46" s="161"/>
+      <c r="N46" s="161"/>
       <c r="O46" s="43" t="s">
         <v>71</v>
       </c>
       <c r="P46" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Q46" s="156" t="e">
+      <c r="Q46" s="157" t="e">
         <f aca="false">(N49/R6)*P26</f>
         <v>#DIV/0!</v>
       </c>
@@ -4591,7 +4614,7 @@
       <c r="A47" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="161" t="n">
+      <c r="D47" s="162" t="n">
         <f aca="false">F47/12</f>
         <v>0</v>
       </c>
@@ -4625,7 +4648,7 @@
       <c r="P47" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="Q47" s="162" t="s">
+      <c r="Q47" s="163" t="s">
         <v>147</v>
       </c>
       <c r="R47" s="63" t="n">
@@ -4637,27 +4660,27 @@
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F48" s="163" t="n">
+      <c r="F48" s="164" t="n">
         <f aca="false">-F45+F47</f>
         <v>0</v>
       </c>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163" t="n">
+      <c r="G48" s="164"/>
+      <c r="H48" s="164" t="n">
         <f aca="false">-H45+H47</f>
         <v>0</v>
       </c>
-      <c r="I48" s="163"/>
-      <c r="J48" s="163" t="n">
+      <c r="I48" s="164"/>
+      <c r="J48" s="164" t="n">
         <f aca="false">-J45+J47</f>
         <v>0</v>
       </c>
-      <c r="K48" s="163"/>
-      <c r="L48" s="163" t="n">
+      <c r="K48" s="164"/>
+      <c r="L48" s="164" t="n">
         <f aca="false">-L45+L47</f>
         <v>0</v>
       </c>
-      <c r="M48" s="163"/>
-      <c r="N48" s="163" t="n">
+      <c r="M48" s="164"/>
+      <c r="N48" s="164" t="n">
         <f aca="false">-N45+N47</f>
         <v>0</v>
       </c>
@@ -4665,7 +4688,7 @@
       <c r="P48" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="Q48" s="30"/>
+      <c r="Q48" s="163"/>
       <c r="R48" s="63" t="n">
         <f aca="false">-(H7-(F43+H43+J43+L43+N43)+H6)</f>
         <v>-0</v>
@@ -4675,32 +4698,32 @@
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="164" t="n">
+      <c r="D49" s="165" t="n">
         <f aca="false">F49/12</f>
         <v>0</v>
       </c>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164" t="n">
+      <c r="E49" s="165"/>
+      <c r="F49" s="165" t="n">
         <f aca="false">(F41+(F13+F44))</f>
         <v>0</v>
       </c>
-      <c r="G49" s="165"/>
-      <c r="H49" s="164" t="n">
+      <c r="G49" s="166"/>
+      <c r="H49" s="165" t="n">
         <f aca="false">(H41+(F13+H44))</f>
         <v>0</v>
       </c>
-      <c r="I49" s="165"/>
-      <c r="J49" s="164" t="n">
+      <c r="I49" s="166"/>
+      <c r="J49" s="165" t="n">
         <f aca="false">(J41+(F13+J44))</f>
         <v>0</v>
       </c>
-      <c r="K49" s="165"/>
-      <c r="L49" s="164" t="n">
+      <c r="K49" s="166"/>
+      <c r="L49" s="165" t="n">
         <f aca="false">(L41+(F13+L44))</f>
         <v>0</v>
       </c>
-      <c r="M49" s="165"/>
-      <c r="N49" s="164" t="n">
+      <c r="M49" s="166"/>
+      <c r="N49" s="165" t="n">
         <f aca="false">(N41+(F13+N44))</f>
         <v>0</v>
       </c>
@@ -4708,7 +4731,7 @@
         <v>151</v>
       </c>
       <c r="P49" s="37"/>
-      <c r="Q49" s="30"/>
+      <c r="Q49" s="163"/>
       <c r="R49" s="63" t="n">
         <f aca="false">(R47+R48)</f>
         <v>0</v>
@@ -4721,17 +4744,17 @@
       <c r="B50" s="36"/>
       <c r="D50" s="102"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="154" t="n">
+      <c r="F50" s="155" t="n">
         <f aca="false">IF(F49&lt;F48,0,-((F49-F48)*B46))</f>
         <v>-0</v>
       </c>
       <c r="G50" s="62"/>
-      <c r="H50" s="154" t="n">
+      <c r="H50" s="155" t="n">
         <f aca="false">IF(H49&lt;H48,0,-((H49-H48)*B46))</f>
         <v>-0</v>
       </c>
       <c r="I50" s="62"/>
-      <c r="J50" s="166" t="n">
+      <c r="J50" s="167" t="n">
         <f aca="false">IF(J49&lt;J48,0,-((J49-J48)*B46))</f>
         <v>-0</v>
       </c>
@@ -4745,57 +4768,57 @@
         <f aca="false">IF(N49&lt;N48,0,-((N49-N48)*B46))</f>
         <v>-0</v>
       </c>
-      <c r="O50" s="167" t="s">
+      <c r="O50" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="P50" s="168"/>
+      <c r="P50" s="169"/>
       <c r="Q50" s="73"/>
-      <c r="R50" s="169" t="n">
+      <c r="R50" s="170" t="n">
         <f aca="false">R42+R43+R44+R45+R46+R49</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="170" t="s">
+      <c r="A51" s="171" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="171"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="172" t="n">
+      <c r="B51" s="172"/>
+      <c r="C51" s="172"/>
+      <c r="D51" s="173" t="n">
         <f aca="false">F51/12</f>
         <v>0</v>
       </c>
-      <c r="E51" s="172"/>
-      <c r="F51" s="172" t="n">
+      <c r="E51" s="173"/>
+      <c r="F51" s="173" t="n">
         <f aca="false">F49+F50</f>
         <v>0</v>
       </c>
-      <c r="G51" s="172"/>
-      <c r="H51" s="172" t="n">
+      <c r="G51" s="173"/>
+      <c r="H51" s="173" t="n">
         <f aca="false">H49+H50</f>
         <v>0</v>
       </c>
-      <c r="I51" s="172"/>
-      <c r="J51" s="172" t="n">
+      <c r="I51" s="173"/>
+      <c r="J51" s="173" t="n">
         <f aca="false">J49+J50</f>
         <v>0</v>
       </c>
-      <c r="K51" s="172"/>
-      <c r="L51" s="172" t="n">
+      <c r="K51" s="173"/>
+      <c r="L51" s="173" t="n">
         <f aca="false">L49+L50</f>
         <v>0</v>
       </c>
-      <c r="M51" s="172"/>
-      <c r="N51" s="172" t="n">
+      <c r="M51" s="173"/>
+      <c r="N51" s="173" t="n">
         <f aca="false">N49+N50</f>
         <v>0</v>
       </c>
-      <c r="O51" s="173" t="s">
+      <c r="O51" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="P51" s="174"/>
-      <c r="Q51" s="174"/>
-      <c r="R51" s="175" t="e">
+      <c r="P51" s="175"/>
+      <c r="Q51" s="175"/>
+      <c r="R51" s="176" t="e">
         <f aca="false">((-R50)/R41)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4805,7 +4828,7 @@
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F53" s="62"/>
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
@@ -4816,23 +4839,22 @@
       <c r="M53" s="62"/>
       <c r="N53" s="62"/>
     </row>
-    <row r="54" s="1" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="176"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="177"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="177"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="177"/>
-      <c r="M54" s="178"/>
-      <c r="N54" s="177"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="177"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="179"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="179"/>
+      <c r="J54" s="178"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="178"/>
+      <c r="M54" s="179"/>
+      <c r="N54" s="178"/>
+    </row>
   </sheetData>
   <mergeCells count="38">
     <mergeCell ref="A1:N1"/>
@@ -4892,13 +4914,13 @@
   </sheetPr>
   <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="84" zoomScaleNormal="84" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="32.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.49"/>
@@ -4918,16 +4940,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="12.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5032,13 +5051,13 @@
       <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="179" t="n">
+      <c r="F5" s="180" t="n">
         <v>0.2</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="180" t="n">
+      <c r="H5" s="181" t="n">
         <f aca="false">H4*F5</f>
         <v>0</v>
       </c>
@@ -5076,7 +5095,7 @@
       <c r="G6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="180" t="n">
+      <c r="H6" s="181" t="n">
         <f aca="false">F6*H4</f>
         <v>0</v>
       </c>
@@ -5133,7 +5152,7 @@
       <c r="O7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="30"/>
+      <c r="P7" s="163"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="34" t="n">
         <f aca="false">H4*0.035</f>
@@ -5161,7 +5180,7 @@
       <c r="O8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="30"/>
+      <c r="P8" s="163"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="34" t="n">
         <f aca="false">H4*0.01</f>
@@ -5191,7 +5210,7 @@
       <c r="O9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="30"/>
+      <c r="P9" s="163"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="46" t="e">
         <f aca="false">R6-R7-R8</f>
@@ -5225,8 +5244,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="O10" s="43"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="163"/>
       <c r="R10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,13 +5381,13 @@
       <c r="D14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="181" t="n">
+      <c r="F14" s="182" t="n">
         <v>0.08</v>
       </c>
       <c r="G14" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="182" t="n">
+      <c r="H14" s="183" t="n">
         <v>60</v>
       </c>
       <c r="I14" s="71" t="s">
@@ -5401,10 +5420,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0"/>
-      <c r="F15" s="183" t="s">
+      <c r="F15" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="184" t="s">
+      <c r="H15" s="185" t="s">
         <v>56</v>
       </c>
       <c r="O15" s="81" t="s">
@@ -5441,7 +5460,7 @@
         <v>0.025</v>
       </c>
       <c r="O16" s="17"/>
-      <c r="P16" s="30"/>
+      <c r="P16" s="163"/>
       <c r="Q16" s="33"/>
       <c r="R16" s="39"/>
     </row>
@@ -5475,7 +5494,7 @@
       <c r="O17" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="30"/>
+      <c r="P17" s="163"/>
       <c r="Q17" s="33"/>
       <c r="R17" s="88" t="e">
         <f aca="false">R14/R6</f>
@@ -5514,7 +5533,7 @@
       <c r="O18" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="30"/>
+      <c r="P18" s="163"/>
       <c r="Q18" s="33"/>
       <c r="R18" s="88" t="e">
         <f aca="false">R17/30</f>
@@ -5736,7 +5755,7 @@
         <v>83</v>
       </c>
       <c r="S23" s="144" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T23" s="144"/>
       <c r="U23" s="144"/>
@@ -5830,20 +5849,20 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="34"/>
-      <c r="S25" s="185" t="s">
-        <v>157</v>
+      <c r="S25" s="186" t="s">
+        <v>158</v>
       </c>
       <c r="T25" s="120" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U25" s="120" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V25" s="120" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W25" s="106" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5867,10 +5886,10 @@
       <c r="S26" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="T26" s="186"/>
-      <c r="U26" s="186"/>
-      <c r="V26" s="186"/>
-      <c r="W26" s="186"/>
+      <c r="T26" s="187"/>
+      <c r="U26" s="187"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="187"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="130" t="s">
@@ -5906,10 +5925,10 @@
       <c r="S27" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="T27" s="186"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="186"/>
+      <c r="T27" s="187"/>
+      <c r="U27" s="187"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="187"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -5965,10 +5984,10 @@
       <c r="S28" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="T28" s="186"/>
-      <c r="U28" s="186"/>
-      <c r="V28" s="186"/>
-      <c r="W28" s="186"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="187"/>
+      <c r="W28" s="187"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
@@ -6022,10 +6041,10 @@
       <c r="S29" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="T29" s="186"/>
-      <c r="U29" s="186"/>
-      <c r="V29" s="186"/>
-      <c r="W29" s="186"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
@@ -6079,10 +6098,10 @@
       <c r="S30" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="T30" s="186"/>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="186"/>
+      <c r="T30" s="187"/>
+      <c r="U30" s="187"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="187"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -6179,7 +6198,7 @@
       <c r="Q32" s="99"/>
       <c r="R32" s="99"/>
       <c r="S32" s="43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T32" s="37" t="n">
         <f aca="false">SUM(T26:T30)</f>
@@ -6244,14 +6263,14 @@
       <c r="Q33" s="139"/>
       <c r="R33" s="139"/>
       <c r="S33" s="104" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T33" s="104"/>
       <c r="U33" s="37" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V33" s="37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W33" s="121"/>
     </row>
@@ -6300,13 +6319,13 @@
       <c r="P34" s="139"/>
       <c r="Q34" s="139"/>
       <c r="R34" s="139"/>
-      <c r="S34" s="187" t="s">
-        <v>166</v>
-      </c>
-      <c r="T34" s="187"/>
-      <c r="U34" s="188"/>
-      <c r="V34" s="189"/>
-      <c r="W34" s="190" t="n">
+      <c r="S34" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="T34" s="188"/>
+      <c r="U34" s="189"/>
+      <c r="V34" s="190"/>
+      <c r="W34" s="191" t="n">
         <f aca="false">SUM(T32:W32)+W33</f>
         <v>0</v>
       </c>
@@ -6356,13 +6375,13 @@
       <c r="P35" s="139"/>
       <c r="Q35" s="139"/>
       <c r="R35" s="139"/>
-      <c r="S35" s="191" t="s">
-        <v>167</v>
-      </c>
-      <c r="T35" s="192"/>
-      <c r="U35" s="192"/>
-      <c r="V35" s="192"/>
-      <c r="W35" s="193" t="e">
+      <c r="S35" s="192" t="s">
+        <v>168</v>
+      </c>
+      <c r="T35" s="193"/>
+      <c r="U35" s="193"/>
+      <c r="V35" s="193"/>
+      <c r="W35" s="194" t="e">
         <f aca="false">W34/-Q37</f>
         <v>#DIV/0!</v>
       </c>
@@ -6458,13 +6477,13 @@
         <f aca="false">(L37*N18)+L37</f>
         <v>0</v>
       </c>
-      <c r="O37" s="194" t="n">
+      <c r="O37" s="195" t="n">
         <f aca="false">Current!O37</f>
         <v>0</v>
       </c>
-      <c r="P37" s="194"/>
-      <c r="Q37" s="194"/>
-      <c r="R37" s="194"/>
+      <c r="P37" s="195"/>
+      <c r="Q37" s="195"/>
+      <c r="R37" s="195"/>
       <c r="S37" s="104" t="s">
         <v>76</v>
       </c>
@@ -6583,45 +6602,45 @@
       <c r="M40" s="68"/>
       <c r="N40" s="68"/>
       <c r="O40" s="43"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
+      <c r="P40" s="163"/>
+      <c r="Q40" s="163"/>
       <c r="R40" s="39"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="150" t="e">
+      <c r="B41" s="196" t="e">
         <f aca="false">100%-B39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C41" s="130"/>
-      <c r="D41" s="195" t="n">
+      <c r="D41" s="197" t="n">
         <f aca="false">D25-D39</f>
         <v>0</v>
       </c>
       <c r="E41" s="130"/>
-      <c r="F41" s="195" t="n">
+      <c r="F41" s="197" t="n">
         <f aca="false">F25-F39</f>
         <v>0</v>
       </c>
       <c r="G41" s="130"/>
-      <c r="H41" s="195" t="n">
+      <c r="H41" s="197" t="n">
         <f aca="false">H25-H39</f>
         <v>0</v>
       </c>
       <c r="I41" s="130"/>
-      <c r="J41" s="195" t="n">
+      <c r="J41" s="197" t="n">
         <f aca="false">J25-J39</f>
         <v>0</v>
       </c>
       <c r="K41" s="130"/>
-      <c r="L41" s="195" t="n">
+      <c r="L41" s="197" t="n">
         <f aca="false">L25-L39</f>
         <v>0</v>
       </c>
       <c r="M41" s="89"/>
-      <c r="N41" s="195" t="n">
+      <c r="N41" s="197" t="n">
         <f aca="false">N25-N39</f>
         <v>0</v>
       </c>
@@ -6661,32 +6680,32 @@
         <f aca="false">-D42/D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="154" t="n">
+      <c r="D42" s="155" t="n">
         <f aca="false">F42/12</f>
         <v>-0</v>
       </c>
-      <c r="E42" s="155"/>
-      <c r="F42" s="154" t="n">
+      <c r="E42" s="156"/>
+      <c r="F42" s="155" t="n">
         <f aca="false">ISPMT(F11,12,H12,H7)</f>
         <v>-0</v>
       </c>
-      <c r="G42" s="155"/>
-      <c r="H42" s="154" t="n">
+      <c r="G42" s="156"/>
+      <c r="H42" s="155" t="n">
         <f aca="false">ISPMT(F11,24,H12,H7)</f>
         <v>-0</v>
       </c>
-      <c r="I42" s="155"/>
-      <c r="J42" s="154" t="n">
+      <c r="I42" s="156"/>
+      <c r="J42" s="155" t="n">
         <f aca="false">ISPMT(F11,36,H12,H7)</f>
         <v>-0</v>
       </c>
-      <c r="K42" s="155"/>
-      <c r="L42" s="154" t="n">
+      <c r="K42" s="156"/>
+      <c r="L42" s="155" t="n">
         <f aca="false">ISPMT(F11,48,H12,H7)</f>
         <v>-0</v>
       </c>
-      <c r="M42" s="155"/>
-      <c r="N42" s="154" t="n">
+      <c r="M42" s="156"/>
+      <c r="N42" s="155" t="n">
         <f aca="false">ISPMT(F11,60,H12,H7)</f>
         <v>-0</v>
       </c>
@@ -6760,7 +6779,7 @@
       <c r="P43" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Q43" s="156" t="e">
+      <c r="Q43" s="157" t="e">
         <f aca="false">(H49/R6)*P26</f>
         <v>#DIV/0!</v>
       </c>
@@ -6793,27 +6812,27 @@
         <f aca="false">-D44/D25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="157" t="n">
+      <c r="D44" s="158" t="n">
         <f aca="false">F44/12</f>
         <v>-0</v>
       </c>
-      <c r="F44" s="154" t="n">
+      <c r="F44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
-      <c r="H44" s="154" t="n">
+      <c r="H44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
-      <c r="J44" s="154" t="n">
+      <c r="J44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
-      <c r="L44" s="154" t="n">
+      <c r="L44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
-      <c r="N44" s="154" t="n">
+      <c r="N44" s="155" t="n">
         <f aca="false">-H6*F14</f>
         <v>-0</v>
       </c>
@@ -6823,7 +6842,7 @@
       <c r="P44" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Q44" s="156" t="e">
+      <c r="Q44" s="157" t="e">
         <f aca="false">(J49/R6)*P26</f>
         <v>#DIV/0!</v>
       </c>
@@ -6853,28 +6872,28 @@
         <v>141</v>
       </c>
       <c r="B45" s="146"/>
-      <c r="D45" s="157"/>
-      <c r="F45" s="158" t="n">
+      <c r="D45" s="158"/>
+      <c r="F45" s="159" t="n">
         <f aca="false">SUM(F44+F42)</f>
         <v>0</v>
       </c>
-      <c r="G45" s="159"/>
-      <c r="H45" s="158" t="n">
+      <c r="G45" s="160"/>
+      <c r="H45" s="159" t="n">
         <f aca="false">SUM(H44+H42)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="159"/>
-      <c r="J45" s="158" t="n">
+      <c r="I45" s="160"/>
+      <c r="J45" s="159" t="n">
         <f aca="false">SUM(J44+J42)</f>
         <v>0</v>
       </c>
-      <c r="K45" s="159"/>
-      <c r="L45" s="158" t="n">
+      <c r="K45" s="160"/>
+      <c r="L45" s="159" t="n">
         <f aca="false">SUM(L44+L42)</f>
         <v>0</v>
       </c>
-      <c r="M45" s="159"/>
-      <c r="N45" s="158" t="n">
+      <c r="M45" s="160"/>
+      <c r="N45" s="159" t="n">
         <f aca="false">SUM(N44+N42)</f>
         <v>0</v>
       </c>
@@ -6884,7 +6903,7 @@
       <c r="P45" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Q45" s="156" t="e">
+      <c r="Q45" s="157" t="e">
         <f aca="false">(L49/R6)*P26</f>
         <v>#DIV/0!</v>
       </c>
@@ -6916,26 +6935,26 @@
       <c r="B46" s="36" t="n">
         <v>0.15</v>
       </c>
-      <c r="D46" s="160" t="s">
+      <c r="D46" s="161" t="s">
         <v>143</v>
       </c>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="160"/>
-      <c r="K46" s="160"/>
-      <c r="L46" s="160"/>
-      <c r="M46" s="160"/>
-      <c r="N46" s="160"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="161"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="161"/>
+      <c r="J46" s="161"/>
+      <c r="K46" s="161"/>
+      <c r="L46" s="161"/>
+      <c r="M46" s="161"/>
+      <c r="N46" s="161"/>
       <c r="O46" s="43" t="s">
         <v>71</v>
       </c>
       <c r="P46" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="Q46" s="156" t="e">
+      <c r="Q46" s="157" t="e">
         <f aca="false">(N49/R6)*P26</f>
         <v>#DIV/0!</v>
       </c>
@@ -6964,7 +6983,7 @@
       <c r="A47" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="161" t="n">
+      <c r="D47" s="162" t="n">
         <f aca="false">F47/12</f>
         <v>0</v>
       </c>
@@ -6998,7 +7017,7 @@
       <c r="P47" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="Q47" s="162" t="s">
+      <c r="Q47" s="163" t="s">
         <v>147</v>
       </c>
       <c r="R47" s="63" t="n">
@@ -7010,28 +7029,28 @@
       <c r="A48" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="196"/>
-      <c r="F48" s="163" t="n">
+      <c r="B48" s="198"/>
+      <c r="F48" s="164" t="n">
         <f aca="false">-F45+F47</f>
         <v>0</v>
       </c>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163" t="n">
+      <c r="G48" s="164"/>
+      <c r="H48" s="164" t="n">
         <f aca="false">-H45+H47</f>
         <v>0</v>
       </c>
-      <c r="I48" s="163"/>
-      <c r="J48" s="163" t="n">
+      <c r="I48" s="164"/>
+      <c r="J48" s="164" t="n">
         <f aca="false">-J45+J47</f>
         <v>0</v>
       </c>
-      <c r="K48" s="163"/>
-      <c r="L48" s="163" t="n">
+      <c r="K48" s="164"/>
+      <c r="L48" s="164" t="n">
         <f aca="false">-L45+L47</f>
         <v>0</v>
       </c>
-      <c r="M48" s="163"/>
-      <c r="N48" s="163" t="n">
+      <c r="M48" s="164"/>
+      <c r="N48" s="164" t="n">
         <f aca="false">-N45+N47</f>
         <v>0</v>
       </c>
@@ -7039,7 +7058,7 @@
       <c r="P48" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="Q48" s="30"/>
+      <c r="Q48" s="163"/>
       <c r="R48" s="63" t="n">
         <f aca="false">-(H7-(F43+H43+J43+L43+N43)+H6)</f>
         <v>-0</v>
@@ -7064,32 +7083,32 @@
       <c r="A49" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D49" s="164" t="n">
+      <c r="D49" s="165" t="n">
         <f aca="false">F49/12</f>
         <v>0</v>
       </c>
-      <c r="E49" s="164"/>
-      <c r="F49" s="164" t="n">
+      <c r="E49" s="165"/>
+      <c r="F49" s="165" t="n">
         <f aca="false">(F41+(F13+F44))</f>
         <v>0</v>
       </c>
-      <c r="G49" s="165"/>
-      <c r="H49" s="164" t="n">
+      <c r="G49" s="166"/>
+      <c r="H49" s="165" t="n">
         <f aca="false">(H41+(F13+H44))</f>
         <v>0</v>
       </c>
-      <c r="I49" s="165"/>
-      <c r="J49" s="164" t="n">
+      <c r="I49" s="166"/>
+      <c r="J49" s="165" t="n">
         <f aca="false">(J41+(F13+J44))</f>
         <v>0</v>
       </c>
-      <c r="K49" s="165"/>
-      <c r="L49" s="164" t="n">
+      <c r="K49" s="166"/>
+      <c r="L49" s="165" t="n">
         <f aca="false">(L41+(F13+L44))</f>
         <v>0</v>
       </c>
-      <c r="M49" s="165"/>
-      <c r="N49" s="164" t="n">
+      <c r="M49" s="166"/>
+      <c r="N49" s="165" t="n">
         <f aca="false">(N41+(F13+N44))</f>
         <v>0</v>
       </c>
@@ -7097,7 +7116,7 @@
         <v>151</v>
       </c>
       <c r="P49" s="37"/>
-      <c r="Q49" s="30"/>
+      <c r="Q49" s="163"/>
       <c r="R49" s="63" t="n">
         <f aca="false">R47+R48</f>
         <v>0</v>
@@ -7118,7 +7137,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" s="189" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="190" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>152</v>
       </c>
@@ -7126,17 +7145,17 @@
       <c r="C50" s="0"/>
       <c r="D50" s="102"/>
       <c r="E50" s="102"/>
-      <c r="F50" s="154" t="n">
+      <c r="F50" s="155" t="n">
         <f aca="false">IF(F49&lt;F48,0,-((F49-F48)*B46))</f>
         <v>-0</v>
       </c>
       <c r="G50" s="62"/>
-      <c r="H50" s="154" t="n">
+      <c r="H50" s="155" t="n">
         <f aca="false">IF(H49&lt;H48,0,-((H49-H48)*B46))</f>
         <v>-0</v>
       </c>
       <c r="I50" s="62"/>
-      <c r="J50" s="166" t="n">
+      <c r="J50" s="167" t="n">
         <f aca="false">IF(J49&lt;J48,0,-((J49-J48)*B46))</f>
         <v>-0</v>
       </c>
@@ -7150,12 +7169,12 @@
         <f aca="false">IF(N49&lt;N48,0,-((N49-N48)*B46))</f>
         <v>-0</v>
       </c>
-      <c r="O50" s="167" t="s">
+      <c r="O50" s="168" t="s">
         <v>153</v>
       </c>
-      <c r="P50" s="168"/>
+      <c r="P50" s="169"/>
       <c r="Q50" s="73"/>
-      <c r="R50" s="169" t="n">
+      <c r="R50" s="170" t="n">
         <f aca="false">R42+R43+R44+R45+R46+R49</f>
         <v>0</v>
       </c>
@@ -7164,549 +7183,549 @@
       <c r="U50" s="0"/>
       <c r="V50" s="0"/>
       <c r="W50" s="140"/>
-      <c r="Y50" s="188"/>
-      <c r="AA50" s="188"/>
+      <c r="Y50" s="189"/>
+      <c r="AA50" s="189"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="0"/>
       <c r="AE50" s="0"/>
-      <c r="AI50" s="188"/>
-      <c r="AK50" s="188"/>
-      <c r="AM50" s="188"/>
-      <c r="AO50" s="188"/>
+      <c r="AI50" s="189"/>
+      <c r="AK50" s="189"/>
+      <c r="AM50" s="189"/>
+      <c r="AO50" s="189"/>
       <c r="AQ50" s="1"/>
       <c r="AR50" s="0"/>
       <c r="AS50" s="0"/>
-      <c r="AW50" s="188"/>
-      <c r="AY50" s="188"/>
-      <c r="BA50" s="188"/>
-      <c r="BC50" s="188"/>
+      <c r="AW50" s="189"/>
+      <c r="AY50" s="189"/>
+      <c r="BA50" s="189"/>
+      <c r="BC50" s="189"/>
       <c r="BE50" s="1"/>
       <c r="BF50" s="0"/>
       <c r="BG50" s="0"/>
-      <c r="BK50" s="188"/>
-      <c r="BM50" s="188"/>
-      <c r="BO50" s="188"/>
-      <c r="BQ50" s="188"/>
+      <c r="BK50" s="189"/>
+      <c r="BM50" s="189"/>
+      <c r="BO50" s="189"/>
+      <c r="BQ50" s="189"/>
       <c r="BS50" s="1"/>
       <c r="BT50" s="0"/>
       <c r="BU50" s="0"/>
-      <c r="BY50" s="188"/>
-      <c r="CA50" s="188"/>
-      <c r="CC50" s="188"/>
-      <c r="CE50" s="188"/>
+      <c r="BY50" s="189"/>
+      <c r="CA50" s="189"/>
+      <c r="CC50" s="189"/>
+      <c r="CE50" s="189"/>
       <c r="CG50" s="1"/>
       <c r="CH50" s="0"/>
       <c r="CI50" s="0"/>
-      <c r="CM50" s="188"/>
-      <c r="CO50" s="188"/>
-      <c r="CQ50" s="188"/>
-      <c r="CS50" s="188"/>
+      <c r="CM50" s="189"/>
+      <c r="CO50" s="189"/>
+      <c r="CQ50" s="189"/>
+      <c r="CS50" s="189"/>
       <c r="CU50" s="1"/>
       <c r="CV50" s="0"/>
       <c r="CW50" s="0"/>
-      <c r="DA50" s="188"/>
-      <c r="DC50" s="188"/>
-      <c r="DE50" s="188"/>
-      <c r="DG50" s="188"/>
+      <c r="DA50" s="189"/>
+      <c r="DC50" s="189"/>
+      <c r="DE50" s="189"/>
+      <c r="DG50" s="189"/>
       <c r="DI50" s="1"/>
       <c r="DJ50" s="0"/>
       <c r="DK50" s="0"/>
-      <c r="DO50" s="188"/>
-      <c r="DQ50" s="188"/>
-      <c r="DS50" s="188"/>
-      <c r="DU50" s="188"/>
+      <c r="DO50" s="189"/>
+      <c r="DQ50" s="189"/>
+      <c r="DS50" s="189"/>
+      <c r="DU50" s="189"/>
       <c r="DW50" s="1"/>
       <c r="DX50" s="0"/>
       <c r="DY50" s="0"/>
-      <c r="EC50" s="188"/>
-      <c r="EE50" s="188"/>
-      <c r="EG50" s="188"/>
-      <c r="EI50" s="188"/>
+      <c r="EC50" s="189"/>
+      <c r="EE50" s="189"/>
+      <c r="EG50" s="189"/>
+      <c r="EI50" s="189"/>
       <c r="EK50" s="1"/>
       <c r="EL50" s="0"/>
       <c r="EM50" s="0"/>
-      <c r="EQ50" s="188"/>
-      <c r="ES50" s="188"/>
-      <c r="EU50" s="188"/>
-      <c r="EW50" s="188"/>
+      <c r="EQ50" s="189"/>
+      <c r="ES50" s="189"/>
+      <c r="EU50" s="189"/>
+      <c r="EW50" s="189"/>
       <c r="EY50" s="1"/>
       <c r="EZ50" s="0"/>
       <c r="FA50" s="0"/>
-      <c r="FE50" s="188"/>
-      <c r="FG50" s="188"/>
-      <c r="FI50" s="188"/>
-      <c r="FK50" s="188"/>
+      <c r="FE50" s="189"/>
+      <c r="FG50" s="189"/>
+      <c r="FI50" s="189"/>
+      <c r="FK50" s="189"/>
       <c r="FM50" s="1"/>
       <c r="FN50" s="0"/>
       <c r="FO50" s="0"/>
-      <c r="FS50" s="188"/>
-      <c r="FU50" s="188"/>
-      <c r="FW50" s="188"/>
-      <c r="FY50" s="188"/>
+      <c r="FS50" s="189"/>
+      <c r="FU50" s="189"/>
+      <c r="FW50" s="189"/>
+      <c r="FY50" s="189"/>
       <c r="GA50" s="1"/>
       <c r="GB50" s="0"/>
       <c r="GC50" s="0"/>
-      <c r="GG50" s="188"/>
-      <c r="GI50" s="188"/>
-      <c r="GK50" s="188"/>
-      <c r="GM50" s="188"/>
+      <c r="GG50" s="189"/>
+      <c r="GI50" s="189"/>
+      <c r="GK50" s="189"/>
+      <c r="GM50" s="189"/>
       <c r="GO50" s="1"/>
       <c r="GP50" s="0"/>
       <c r="GQ50" s="0"/>
-      <c r="GU50" s="188"/>
-      <c r="GW50" s="188"/>
-      <c r="GY50" s="188"/>
-      <c r="HA50" s="188"/>
+      <c r="GU50" s="189"/>
+      <c r="GW50" s="189"/>
+      <c r="GY50" s="189"/>
+      <c r="HA50" s="189"/>
       <c r="HC50" s="1"/>
       <c r="HD50" s="0"/>
       <c r="HE50" s="0"/>
-      <c r="HI50" s="188"/>
-      <c r="HK50" s="188"/>
-      <c r="HM50" s="188"/>
-      <c r="HO50" s="188"/>
+      <c r="HI50" s="189"/>
+      <c r="HK50" s="189"/>
+      <c r="HM50" s="189"/>
+      <c r="HO50" s="189"/>
       <c r="HQ50" s="1"/>
       <c r="HR50" s="0"/>
       <c r="HS50" s="0"/>
-      <c r="HW50" s="188"/>
-      <c r="HY50" s="188"/>
-      <c r="IA50" s="188"/>
-      <c r="IC50" s="188"/>
+      <c r="HW50" s="189"/>
+      <c r="HY50" s="189"/>
+      <c r="IA50" s="189"/>
+      <c r="IC50" s="189"/>
       <c r="IE50" s="1"/>
       <c r="IF50" s="0"/>
       <c r="IG50" s="0"/>
-      <c r="IK50" s="188"/>
-      <c r="IM50" s="188"/>
-      <c r="IO50" s="188"/>
-      <c r="IQ50" s="188"/>
+      <c r="IK50" s="189"/>
+      <c r="IM50" s="189"/>
+      <c r="IO50" s="189"/>
+      <c r="IQ50" s="189"/>
       <c r="IS50" s="1"/>
       <c r="IT50" s="0"/>
       <c r="IU50" s="0"/>
-      <c r="IY50" s="188"/>
-      <c r="JA50" s="188"/>
-      <c r="JC50" s="188"/>
-      <c r="JE50" s="188"/>
+      <c r="IY50" s="189"/>
+      <c r="JA50" s="189"/>
+      <c r="JC50" s="189"/>
+      <c r="JE50" s="189"/>
       <c r="JG50" s="1"/>
       <c r="JH50" s="0"/>
       <c r="JI50" s="0"/>
-      <c r="JM50" s="188"/>
-      <c r="JO50" s="188"/>
-      <c r="JQ50" s="188"/>
-      <c r="JS50" s="188"/>
+      <c r="JM50" s="189"/>
+      <c r="JO50" s="189"/>
+      <c r="JQ50" s="189"/>
+      <c r="JS50" s="189"/>
       <c r="JU50" s="1"/>
       <c r="JV50" s="0"/>
       <c r="JW50" s="0"/>
-      <c r="KA50" s="188"/>
-      <c r="KC50" s="188"/>
-      <c r="KE50" s="188"/>
-      <c r="KG50" s="188"/>
+      <c r="KA50" s="189"/>
+      <c r="KC50" s="189"/>
+      <c r="KE50" s="189"/>
+      <c r="KG50" s="189"/>
       <c r="KI50" s="1"/>
       <c r="KJ50" s="0"/>
       <c r="KK50" s="0"/>
-      <c r="KO50" s="188"/>
-      <c r="KQ50" s="188"/>
-      <c r="KS50" s="188"/>
-      <c r="KU50" s="188"/>
+      <c r="KO50" s="189"/>
+      <c r="KQ50" s="189"/>
+      <c r="KS50" s="189"/>
+      <c r="KU50" s="189"/>
       <c r="KW50" s="1"/>
       <c r="KX50" s="0"/>
       <c r="KY50" s="0"/>
-      <c r="LC50" s="188"/>
-      <c r="LE50" s="188"/>
-      <c r="LG50" s="188"/>
-      <c r="LI50" s="188"/>
+      <c r="LC50" s="189"/>
+      <c r="LE50" s="189"/>
+      <c r="LG50" s="189"/>
+      <c r="LI50" s="189"/>
       <c r="LK50" s="1"/>
       <c r="LL50" s="0"/>
       <c r="LM50" s="0"/>
-      <c r="LQ50" s="188"/>
-      <c r="LS50" s="188"/>
-      <c r="LU50" s="188"/>
-      <c r="LW50" s="188"/>
+      <c r="LQ50" s="189"/>
+      <c r="LS50" s="189"/>
+      <c r="LU50" s="189"/>
+      <c r="LW50" s="189"/>
       <c r="LY50" s="1"/>
       <c r="LZ50" s="0"/>
       <c r="MA50" s="0"/>
-      <c r="ME50" s="188"/>
-      <c r="MG50" s="188"/>
-      <c r="MI50" s="188"/>
-      <c r="MK50" s="188"/>
+      <c r="ME50" s="189"/>
+      <c r="MG50" s="189"/>
+      <c r="MI50" s="189"/>
+      <c r="MK50" s="189"/>
       <c r="MM50" s="1"/>
       <c r="MN50" s="0"/>
       <c r="MO50" s="0"/>
-      <c r="MS50" s="188"/>
-      <c r="MU50" s="188"/>
-      <c r="MW50" s="188"/>
-      <c r="MY50" s="188"/>
+      <c r="MS50" s="189"/>
+      <c r="MU50" s="189"/>
+      <c r="MW50" s="189"/>
+      <c r="MY50" s="189"/>
       <c r="NA50" s="1"/>
       <c r="NB50" s="0"/>
       <c r="NC50" s="0"/>
-      <c r="NG50" s="188"/>
-      <c r="NI50" s="188"/>
-      <c r="NK50" s="188"/>
-      <c r="NM50" s="188"/>
+      <c r="NG50" s="189"/>
+      <c r="NI50" s="189"/>
+      <c r="NK50" s="189"/>
+      <c r="NM50" s="189"/>
       <c r="NO50" s="1"/>
       <c r="NP50" s="0"/>
       <c r="NQ50" s="0"/>
-      <c r="NU50" s="188"/>
-      <c r="NW50" s="188"/>
-      <c r="NY50" s="188"/>
-      <c r="OA50" s="188"/>
+      <c r="NU50" s="189"/>
+      <c r="NW50" s="189"/>
+      <c r="NY50" s="189"/>
+      <c r="OA50" s="189"/>
       <c r="OC50" s="1"/>
       <c r="OD50" s="0"/>
       <c r="OE50" s="0"/>
-      <c r="OI50" s="188"/>
-      <c r="OK50" s="188"/>
-      <c r="OM50" s="188"/>
-      <c r="OO50" s="188"/>
+      <c r="OI50" s="189"/>
+      <c r="OK50" s="189"/>
+      <c r="OM50" s="189"/>
+      <c r="OO50" s="189"/>
       <c r="OQ50" s="1"/>
       <c r="OR50" s="0"/>
       <c r="OS50" s="0"/>
-      <c r="OW50" s="188"/>
-      <c r="OY50" s="188"/>
-      <c r="PA50" s="188"/>
-      <c r="PC50" s="188"/>
+      <c r="OW50" s="189"/>
+      <c r="OY50" s="189"/>
+      <c r="PA50" s="189"/>
+      <c r="PC50" s="189"/>
       <c r="PE50" s="1"/>
       <c r="PF50" s="0"/>
       <c r="PG50" s="0"/>
-      <c r="PK50" s="188"/>
-      <c r="PM50" s="188"/>
-      <c r="PO50" s="188"/>
-      <c r="PQ50" s="188"/>
+      <c r="PK50" s="189"/>
+      <c r="PM50" s="189"/>
+      <c r="PO50" s="189"/>
+      <c r="PQ50" s="189"/>
       <c r="PS50" s="1"/>
       <c r="PT50" s="0"/>
       <c r="PU50" s="0"/>
-      <c r="PY50" s="188"/>
-      <c r="QA50" s="188"/>
-      <c r="QC50" s="188"/>
-      <c r="QE50" s="188"/>
+      <c r="PY50" s="189"/>
+      <c r="QA50" s="189"/>
+      <c r="QC50" s="189"/>
+      <c r="QE50" s="189"/>
       <c r="QG50" s="1"/>
       <c r="QH50" s="0"/>
       <c r="QI50" s="0"/>
-      <c r="QM50" s="188"/>
-      <c r="QO50" s="188"/>
-      <c r="QQ50" s="188"/>
-      <c r="QS50" s="188"/>
+      <c r="QM50" s="189"/>
+      <c r="QO50" s="189"/>
+      <c r="QQ50" s="189"/>
+      <c r="QS50" s="189"/>
       <c r="QU50" s="1"/>
       <c r="QV50" s="0"/>
       <c r="QW50" s="0"/>
-      <c r="RA50" s="188"/>
-      <c r="RC50" s="188"/>
-      <c r="RE50" s="188"/>
-      <c r="RG50" s="188"/>
+      <c r="RA50" s="189"/>
+      <c r="RC50" s="189"/>
+      <c r="RE50" s="189"/>
+      <c r="RG50" s="189"/>
       <c r="RI50" s="1"/>
       <c r="RJ50" s="0"/>
       <c r="RK50" s="0"/>
-      <c r="RO50" s="188"/>
-      <c r="RQ50" s="188"/>
-      <c r="RS50" s="188"/>
-      <c r="RU50" s="188"/>
+      <c r="RO50" s="189"/>
+      <c r="RQ50" s="189"/>
+      <c r="RS50" s="189"/>
+      <c r="RU50" s="189"/>
       <c r="RW50" s="1"/>
       <c r="RX50" s="0"/>
       <c r="RY50" s="0"/>
-      <c r="SC50" s="188"/>
-      <c r="SE50" s="188"/>
-      <c r="SG50" s="188"/>
-      <c r="SI50" s="188"/>
+      <c r="SC50" s="189"/>
+      <c r="SE50" s="189"/>
+      <c r="SG50" s="189"/>
+      <c r="SI50" s="189"/>
       <c r="SK50" s="1"/>
       <c r="SL50" s="0"/>
       <c r="SM50" s="0"/>
-      <c r="SQ50" s="188"/>
-      <c r="SS50" s="188"/>
-      <c r="SU50" s="188"/>
-      <c r="SW50" s="188"/>
+      <c r="SQ50" s="189"/>
+      <c r="SS50" s="189"/>
+      <c r="SU50" s="189"/>
+      <c r="SW50" s="189"/>
       <c r="SY50" s="1"/>
       <c r="SZ50" s="0"/>
       <c r="TA50" s="0"/>
-      <c r="TE50" s="188"/>
-      <c r="TG50" s="188"/>
-      <c r="TI50" s="188"/>
-      <c r="TK50" s="188"/>
+      <c r="TE50" s="189"/>
+      <c r="TG50" s="189"/>
+      <c r="TI50" s="189"/>
+      <c r="TK50" s="189"/>
       <c r="TM50" s="1"/>
       <c r="TN50" s="0"/>
       <c r="TO50" s="0"/>
-      <c r="TS50" s="188"/>
-      <c r="TU50" s="188"/>
-      <c r="TW50" s="188"/>
-      <c r="TY50" s="188"/>
+      <c r="TS50" s="189"/>
+      <c r="TU50" s="189"/>
+      <c r="TW50" s="189"/>
+      <c r="TY50" s="189"/>
       <c r="UA50" s="1"/>
       <c r="UB50" s="0"/>
       <c r="UC50" s="0"/>
-      <c r="UG50" s="188"/>
-      <c r="UI50" s="188"/>
-      <c r="UK50" s="188"/>
-      <c r="UM50" s="188"/>
+      <c r="UG50" s="189"/>
+      <c r="UI50" s="189"/>
+      <c r="UK50" s="189"/>
+      <c r="UM50" s="189"/>
       <c r="UO50" s="1"/>
       <c r="UP50" s="0"/>
       <c r="UQ50" s="0"/>
-      <c r="UU50" s="188"/>
-      <c r="UW50" s="188"/>
-      <c r="UY50" s="188"/>
-      <c r="VA50" s="188"/>
+      <c r="UU50" s="189"/>
+      <c r="UW50" s="189"/>
+      <c r="UY50" s="189"/>
+      <c r="VA50" s="189"/>
       <c r="VC50" s="1"/>
       <c r="VD50" s="0"/>
       <c r="VE50" s="0"/>
-      <c r="VI50" s="188"/>
-      <c r="VK50" s="188"/>
-      <c r="VM50" s="188"/>
-      <c r="VO50" s="188"/>
+      <c r="VI50" s="189"/>
+      <c r="VK50" s="189"/>
+      <c r="VM50" s="189"/>
+      <c r="VO50" s="189"/>
       <c r="VQ50" s="1"/>
       <c r="VR50" s="0"/>
       <c r="VS50" s="0"/>
-      <c r="VW50" s="188"/>
-      <c r="VY50" s="188"/>
-      <c r="WA50" s="188"/>
-      <c r="WC50" s="188"/>
+      <c r="VW50" s="189"/>
+      <c r="VY50" s="189"/>
+      <c r="WA50" s="189"/>
+      <c r="WC50" s="189"/>
       <c r="WE50" s="1"/>
       <c r="WF50" s="0"/>
       <c r="WG50" s="0"/>
-      <c r="WK50" s="188"/>
-      <c r="WM50" s="188"/>
-      <c r="WO50" s="188"/>
-      <c r="WQ50" s="188"/>
+      <c r="WK50" s="189"/>
+      <c r="WM50" s="189"/>
+      <c r="WO50" s="189"/>
+      <c r="WQ50" s="189"/>
       <c r="WS50" s="1"/>
       <c r="WT50" s="0"/>
       <c r="WU50" s="0"/>
-      <c r="WY50" s="188"/>
-      <c r="XA50" s="188"/>
-      <c r="XC50" s="188"/>
-      <c r="XE50" s="188"/>
+      <c r="WY50" s="189"/>
+      <c r="XA50" s="189"/>
+      <c r="XC50" s="189"/>
+      <c r="XE50" s="189"/>
       <c r="XG50" s="1"/>
       <c r="XH50" s="0"/>
       <c r="XI50" s="0"/>
-      <c r="XM50" s="188"/>
-      <c r="XO50" s="188"/>
-      <c r="XQ50" s="188"/>
-      <c r="XS50" s="188"/>
+      <c r="XM50" s="189"/>
+      <c r="XO50" s="189"/>
+      <c r="XQ50" s="189"/>
+      <c r="XS50" s="189"/>
       <c r="XU50" s="1"/>
       <c r="XV50" s="0"/>
       <c r="XW50" s="0"/>
-      <c r="YA50" s="188"/>
-      <c r="YC50" s="188"/>
-      <c r="YE50" s="188"/>
-      <c r="YG50" s="188"/>
+      <c r="YA50" s="189"/>
+      <c r="YC50" s="189"/>
+      <c r="YE50" s="189"/>
+      <c r="YG50" s="189"/>
       <c r="YI50" s="1"/>
       <c r="YJ50" s="0"/>
       <c r="YK50" s="0"/>
-      <c r="YO50" s="188"/>
-      <c r="YQ50" s="188"/>
-      <c r="YS50" s="188"/>
-      <c r="YU50" s="188"/>
+      <c r="YO50" s="189"/>
+      <c r="YQ50" s="189"/>
+      <c r="YS50" s="189"/>
+      <c r="YU50" s="189"/>
       <c r="YW50" s="1"/>
       <c r="YX50" s="0"/>
       <c r="YY50" s="0"/>
-      <c r="ZC50" s="188"/>
-      <c r="ZE50" s="188"/>
-      <c r="ZG50" s="188"/>
-      <c r="ZI50" s="188"/>
+      <c r="ZC50" s="189"/>
+      <c r="ZE50" s="189"/>
+      <c r="ZG50" s="189"/>
+      <c r="ZI50" s="189"/>
       <c r="ZK50" s="1"/>
       <c r="ZL50" s="0"/>
       <c r="ZM50" s="0"/>
-      <c r="ZQ50" s="188"/>
-      <c r="ZS50" s="188"/>
-      <c r="ZU50" s="188"/>
-      <c r="ZW50" s="188"/>
+      <c r="ZQ50" s="189"/>
+      <c r="ZS50" s="189"/>
+      <c r="ZU50" s="189"/>
+      <c r="ZW50" s="189"/>
       <c r="ZY50" s="1"/>
       <c r="ZZ50" s="0"/>
       <c r="AAA50" s="0"/>
-      <c r="AAE50" s="188"/>
-      <c r="AAG50" s="188"/>
-      <c r="AAI50" s="188"/>
-      <c r="AAK50" s="188"/>
+      <c r="AAE50" s="189"/>
+      <c r="AAG50" s="189"/>
+      <c r="AAI50" s="189"/>
+      <c r="AAK50" s="189"/>
       <c r="AAM50" s="1"/>
       <c r="AAN50" s="0"/>
       <c r="AAO50" s="0"/>
-      <c r="AAS50" s="188"/>
-      <c r="AAU50" s="188"/>
-      <c r="AAW50" s="188"/>
-      <c r="AAY50" s="188"/>
+      <c r="AAS50" s="189"/>
+      <c r="AAU50" s="189"/>
+      <c r="AAW50" s="189"/>
+      <c r="AAY50" s="189"/>
       <c r="ABA50" s="1"/>
       <c r="ABB50" s="0"/>
       <c r="ABC50" s="0"/>
-      <c r="ABG50" s="188"/>
-      <c r="ABI50" s="188"/>
-      <c r="ABK50" s="188"/>
-      <c r="ABM50" s="188"/>
+      <c r="ABG50" s="189"/>
+      <c r="ABI50" s="189"/>
+      <c r="ABK50" s="189"/>
+      <c r="ABM50" s="189"/>
       <c r="ABO50" s="1"/>
       <c r="ABP50" s="0"/>
       <c r="ABQ50" s="0"/>
-      <c r="ABU50" s="188"/>
-      <c r="ABW50" s="188"/>
-      <c r="ABY50" s="188"/>
-      <c r="ACA50" s="188"/>
+      <c r="ABU50" s="189"/>
+      <c r="ABW50" s="189"/>
+      <c r="ABY50" s="189"/>
+      <c r="ACA50" s="189"/>
       <c r="ACC50" s="1"/>
       <c r="ACD50" s="0"/>
       <c r="ACE50" s="0"/>
-      <c r="ACI50" s="188"/>
-      <c r="ACK50" s="188"/>
-      <c r="ACM50" s="188"/>
-      <c r="ACO50" s="188"/>
+      <c r="ACI50" s="189"/>
+      <c r="ACK50" s="189"/>
+      <c r="ACM50" s="189"/>
+      <c r="ACO50" s="189"/>
       <c r="ACQ50" s="1"/>
       <c r="ACR50" s="0"/>
       <c r="ACS50" s="0"/>
-      <c r="ACW50" s="188"/>
-      <c r="ACY50" s="188"/>
-      <c r="ADA50" s="188"/>
-      <c r="ADC50" s="188"/>
+      <c r="ACW50" s="189"/>
+      <c r="ACY50" s="189"/>
+      <c r="ADA50" s="189"/>
+      <c r="ADC50" s="189"/>
       <c r="ADE50" s="1"/>
       <c r="ADF50" s="0"/>
       <c r="ADG50" s="0"/>
-      <c r="ADK50" s="188"/>
-      <c r="ADM50" s="188"/>
-      <c r="ADO50" s="188"/>
-      <c r="ADQ50" s="188"/>
+      <c r="ADK50" s="189"/>
+      <c r="ADM50" s="189"/>
+      <c r="ADO50" s="189"/>
+      <c r="ADQ50" s="189"/>
       <c r="ADS50" s="1"/>
       <c r="ADT50" s="0"/>
       <c r="ADU50" s="0"/>
-      <c r="ADY50" s="188"/>
-      <c r="AEA50" s="188"/>
-      <c r="AEC50" s="188"/>
-      <c r="AEE50" s="188"/>
+      <c r="ADY50" s="189"/>
+      <c r="AEA50" s="189"/>
+      <c r="AEC50" s="189"/>
+      <c r="AEE50" s="189"/>
       <c r="AEG50" s="1"/>
       <c r="AEH50" s="0"/>
       <c r="AEI50" s="0"/>
-      <c r="AEM50" s="188"/>
-      <c r="AEO50" s="188"/>
-      <c r="AEQ50" s="188"/>
-      <c r="AES50" s="188"/>
+      <c r="AEM50" s="189"/>
+      <c r="AEO50" s="189"/>
+      <c r="AEQ50" s="189"/>
+      <c r="AES50" s="189"/>
       <c r="AEU50" s="1"/>
       <c r="AEV50" s="0"/>
       <c r="AEW50" s="0"/>
-      <c r="AFA50" s="188"/>
-      <c r="AFC50" s="188"/>
-      <c r="AFE50" s="188"/>
-      <c r="AFG50" s="188"/>
+      <c r="AFA50" s="189"/>
+      <c r="AFC50" s="189"/>
+      <c r="AFE50" s="189"/>
+      <c r="AFG50" s="189"/>
       <c r="AFI50" s="1"/>
       <c r="AFJ50" s="0"/>
       <c r="AFK50" s="0"/>
-      <c r="AFO50" s="188"/>
-      <c r="AFQ50" s="188"/>
-      <c r="AFS50" s="188"/>
-      <c r="AFU50" s="188"/>
+      <c r="AFO50" s="189"/>
+      <c r="AFQ50" s="189"/>
+      <c r="AFS50" s="189"/>
+      <c r="AFU50" s="189"/>
       <c r="AFW50" s="1"/>
       <c r="AFX50" s="0"/>
       <c r="AFY50" s="0"/>
-      <c r="AGC50" s="188"/>
-      <c r="AGE50" s="188"/>
-      <c r="AGG50" s="188"/>
-      <c r="AGI50" s="188"/>
+      <c r="AGC50" s="189"/>
+      <c r="AGE50" s="189"/>
+      <c r="AGG50" s="189"/>
+      <c r="AGI50" s="189"/>
       <c r="AGK50" s="1"/>
       <c r="AGL50" s="0"/>
       <c r="AGM50" s="0"/>
-      <c r="AGQ50" s="188"/>
-      <c r="AGS50" s="188"/>
-      <c r="AGU50" s="188"/>
-      <c r="AGW50" s="188"/>
+      <c r="AGQ50" s="189"/>
+      <c r="AGS50" s="189"/>
+      <c r="AGU50" s="189"/>
+      <c r="AGW50" s="189"/>
       <c r="AGY50" s="1"/>
       <c r="AGZ50" s="0"/>
       <c r="AHA50" s="0"/>
-      <c r="AHE50" s="188"/>
-      <c r="AHG50" s="188"/>
-      <c r="AHI50" s="188"/>
-      <c r="AHK50" s="188"/>
+      <c r="AHE50" s="189"/>
+      <c r="AHG50" s="189"/>
+      <c r="AHI50" s="189"/>
+      <c r="AHK50" s="189"/>
       <c r="AHM50" s="1"/>
       <c r="AHN50" s="0"/>
       <c r="AHO50" s="0"/>
-      <c r="AHS50" s="188"/>
-      <c r="AHU50" s="188"/>
-      <c r="AHW50" s="188"/>
-      <c r="AHY50" s="188"/>
+      <c r="AHS50" s="189"/>
+      <c r="AHU50" s="189"/>
+      <c r="AHW50" s="189"/>
+      <c r="AHY50" s="189"/>
       <c r="AIA50" s="1"/>
       <c r="AIB50" s="0"/>
       <c r="AIC50" s="0"/>
-      <c r="AIG50" s="188"/>
-      <c r="AII50" s="188"/>
-      <c r="AIK50" s="188"/>
-      <c r="AIM50" s="188"/>
+      <c r="AIG50" s="189"/>
+      <c r="AII50" s="189"/>
+      <c r="AIK50" s="189"/>
+      <c r="AIM50" s="189"/>
       <c r="AIO50" s="1"/>
       <c r="AIP50" s="0"/>
       <c r="AIQ50" s="0"/>
-      <c r="AIU50" s="188"/>
-      <c r="AIW50" s="188"/>
-      <c r="AIY50" s="188"/>
-      <c r="AJA50" s="188"/>
+      <c r="AIU50" s="189"/>
+      <c r="AIW50" s="189"/>
+      <c r="AIY50" s="189"/>
+      <c r="AJA50" s="189"/>
       <c r="AJC50" s="1"/>
       <c r="AJD50" s="0"/>
       <c r="AJE50" s="0"/>
-      <c r="AJI50" s="188"/>
-      <c r="AJK50" s="188"/>
-      <c r="AJM50" s="188"/>
-      <c r="AJO50" s="188"/>
+      <c r="AJI50" s="189"/>
+      <c r="AJK50" s="189"/>
+      <c r="AJM50" s="189"/>
+      <c r="AJO50" s="189"/>
       <c r="AJQ50" s="1"/>
       <c r="AJR50" s="0"/>
       <c r="AJS50" s="0"/>
-      <c r="AJW50" s="188"/>
-      <c r="AJY50" s="188"/>
-      <c r="AKA50" s="188"/>
-      <c r="AKC50" s="188"/>
+      <c r="AJW50" s="189"/>
+      <c r="AJY50" s="189"/>
+      <c r="AKA50" s="189"/>
+      <c r="AKC50" s="189"/>
       <c r="AKE50" s="1"/>
       <c r="AKF50" s="0"/>
       <c r="AKG50" s="0"/>
-      <c r="AKK50" s="188"/>
-      <c r="AKM50" s="188"/>
-      <c r="AKO50" s="188"/>
-      <c r="AKQ50" s="188"/>
+      <c r="AKK50" s="189"/>
+      <c r="AKM50" s="189"/>
+      <c r="AKO50" s="189"/>
+      <c r="AKQ50" s="189"/>
       <c r="AKS50" s="1"/>
       <c r="AKT50" s="0"/>
       <c r="AKU50" s="0"/>
-      <c r="AKY50" s="188"/>
-      <c r="ALA50" s="188"/>
-      <c r="ALC50" s="188"/>
-      <c r="ALE50" s="188"/>
+      <c r="AKY50" s="189"/>
+      <c r="ALA50" s="189"/>
+      <c r="ALC50" s="189"/>
+      <c r="ALE50" s="189"/>
       <c r="ALG50" s="1"/>
       <c r="ALH50" s="0"/>
       <c r="ALI50" s="0"/>
-      <c r="ALM50" s="188"/>
-      <c r="ALO50" s="188"/>
-      <c r="ALQ50" s="188"/>
-      <c r="ALS50" s="188"/>
+      <c r="ALM50" s="189"/>
+      <c r="ALO50" s="189"/>
+      <c r="ALQ50" s="189"/>
+      <c r="ALS50" s="189"/>
       <c r="ALU50" s="1"/>
       <c r="ALV50" s="0"/>
       <c r="ALW50" s="0"/>
-      <c r="AMA50" s="188"/>
-      <c r="AMC50" s="188"/>
-      <c r="AME50" s="188"/>
-      <c r="AMG50" s="188"/>
+      <c r="AMA50" s="189"/>
+      <c r="AMC50" s="189"/>
+      <c r="AME50" s="189"/>
+      <c r="AMG50" s="189"/>
       <c r="AMI50" s="1"/>
       <c r="AMJ50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="170" t="s">
+      <c r="A51" s="199" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="171"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="172" t="n">
+      <c r="B51" s="200"/>
+      <c r="C51" s="200"/>
+      <c r="D51" s="201" t="n">
         <f aca="false">F51/12</f>
         <v>0</v>
       </c>
-      <c r="E51" s="172"/>
-      <c r="F51" s="172" t="n">
+      <c r="E51" s="201"/>
+      <c r="F51" s="201" t="n">
         <f aca="false">F49+F50</f>
         <v>0</v>
       </c>
-      <c r="G51" s="172"/>
-      <c r="H51" s="172" t="n">
+      <c r="G51" s="201"/>
+      <c r="H51" s="201" t="n">
         <f aca="false">H49+H50</f>
         <v>0</v>
       </c>
-      <c r="I51" s="172"/>
-      <c r="J51" s="172" t="n">
+      <c r="I51" s="201"/>
+      <c r="J51" s="201" t="n">
         <f aca="false">J49+J50</f>
         <v>0</v>
       </c>
-      <c r="K51" s="172"/>
-      <c r="L51" s="172" t="n">
+      <c r="K51" s="201"/>
+      <c r="L51" s="201" t="n">
         <f aca="false">L49+L50</f>
         <v>0</v>
       </c>
-      <c r="M51" s="172"/>
-      <c r="N51" s="172" t="n">
+      <c r="M51" s="201"/>
+      <c r="N51" s="201" t="n">
         <f aca="false">N49+N50</f>
         <v>0</v>
       </c>
-      <c r="O51" s="173" t="s">
+      <c r="O51" s="174" t="s">
         <v>155</v>
       </c>
-      <c r="P51" s="174"/>
-      <c r="Q51" s="174"/>
-      <c r="R51" s="175" t="e">
+      <c r="P51" s="175"/>
+      <c r="Q51" s="175"/>
+      <c r="R51" s="176" t="e">
         <f aca="false">((-R50)/R41)</f>
         <v>#DIV/0!</v>
       </c>
@@ -7722,7 +7741,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="197"/>
+      <c r="A52" s="202"/>
       <c r="B52" s="114"/>
       <c r="C52" s="114"/>
       <c r="D52" s="109"/>
@@ -7750,20 +7769,20 @@
       <c r="O53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="176"/>
-      <c r="B54" s="176"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="177"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="177"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="177"/>
-      <c r="M54" s="178"/>
-      <c r="N54" s="177"/>
+      <c r="A54" s="177"/>
+      <c r="B54" s="177"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="179"/>
+      <c r="H54" s="178"/>
+      <c r="I54" s="179"/>
+      <c r="J54" s="178"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="178"/>
+      <c r="M54" s="179"/>
+      <c r="N54" s="178"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
